--- a/dati.xlsx
+++ b/dati.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4110" yWindow="1815" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -240,6 +240,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,32 +750,32 @@
           <t>1743573696146</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="28" t="inlineStr">
         <is>
           <t>1743573696146</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-942109</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -787,32 +790,32 @@
           <t>1743668858768</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="28" t="inlineStr">
         <is>
           <t>1743668858768</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-941686</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" s="28" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="17" t="n">
@@ -823,32 +826,32 @@
           <t>1744015060675</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="28" t="inlineStr">
         <is>
           <t>1744015060675</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-942254</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -863,32 +866,32 @@
           <t>1744019120533</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="28" t="inlineStr">
         <is>
           <t>1744019120533</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-941902</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -903,32 +906,32 @@
           <t>1744011702763</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="28" t="inlineStr">
         <is>
           <t>NON AMMISSIONE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="28" t="inlineStr">
         <is>
           <t>1744011702763</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-941743</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -943,32 +946,32 @@
           <t>1744109260306</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="28" t="inlineStr">
         <is>
           <t>1744109260306</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-942164</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -983,32 +986,32 @@
           <t>1744199103851</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="28" t="inlineStr">
         <is>
           <t>1744199103851</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-941732</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1023,32 +1026,32 @@
           <t>1744190924214</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="28" t="inlineStr">
         <is>
           <t>1744190924214</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-942157</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1063,32 +1066,32 @@
           <t>1744191503522</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F10" s="28" t="inlineStr">
         <is>
           <t>1744191503522</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-942160</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1103,32 +1106,32 @@
           <t>1744194879147</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="28" t="inlineStr">
         <is>
           <t>18/04/2025</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F11" s="28" t="inlineStr">
         <is>
           <t>1744194879147</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-941985</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1143,32 +1146,32 @@
           <t>1744198815465</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="28" t="inlineStr">
         <is>
           <t>CHIUSA</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="28" t="inlineStr">
         <is>
           <t>RILASCIO NULLA OSTA</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="28" t="inlineStr">
         <is>
           <t>15/04/2025</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="28" t="inlineStr">
         <is>
           <t>1744198815465</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" s="28" t="inlineStr">
         <is>
           <t>2025-USMAF-MIL-GME-P-MXP-940160</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1181,32 +1184,32 @@
           <t>1744203024278</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="28" t="inlineStr">
         <is>
           <t>IN LAVORAZIONE</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F13" s="28" t="inlineStr">
         <is>
           <t>1744203024278</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1221,32 +1224,32 @@
           <t>1744280580696</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="28" t="inlineStr">
         <is>
           <t>IN LAVORAZIONE</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F14" s="28" t="inlineStr">
         <is>
           <t>1744280580696</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" s="28" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="13" t="n">
@@ -1257,32 +1260,32 @@
           <t>1744350901846</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="28" t="inlineStr">
         <is>
           <t>IN LAVORAZIONE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F15" s="3" t="inlineStr">
+      <c r="F15" s="28" t="inlineStr">
         <is>
           <t>1744350901846</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="28" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/dati.xlsx
+++ b/dati.xlsx
@@ -692,32 +692,20 @@
       </c>
       <c r="C2" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D2" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E2" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D2" s="28" t="inlineStr"/>
+      <c r="E2" s="28" t="inlineStr"/>
       <c r="F2" s="28" t="inlineStr">
         <is>
           <t>1743573696146</t>
         </is>
       </c>
-      <c r="G2" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-942109</t>
-        </is>
-      </c>
+      <c r="G2" s="28" t="inlineStr"/>
       <c r="H2" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -732,32 +720,20 @@
       </c>
       <c r="C3" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D3" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E3" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D3" s="28" t="inlineStr"/>
+      <c r="E3" s="28" t="inlineStr"/>
       <c r="F3" s="28" t="inlineStr">
         <is>
           <t>1743668858768</t>
         </is>
       </c>
-      <c r="G3" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-941686</t>
-        </is>
-      </c>
+      <c r="G3" s="28" t="inlineStr"/>
       <c r="H3" s="28" t="inlineStr">
         <is>
-          <t>NOTA USMAF</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -772,32 +748,20 @@
       </c>
       <c r="C4" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D4" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr"/>
+      <c r="E4" s="28" t="inlineStr"/>
       <c r="F4" s="28" t="inlineStr">
         <is>
           <t>1744015060675</t>
         </is>
       </c>
-      <c r="G4" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-942254</t>
-        </is>
-      </c>
+      <c r="G4" s="28" t="inlineStr"/>
       <c r="H4" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -812,32 +776,20 @@
       </c>
       <c r="C5" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D5" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D5" s="28" t="inlineStr"/>
+      <c r="E5" s="28" t="inlineStr"/>
       <c r="F5" s="28" t="inlineStr">
         <is>
           <t>1744019120533</t>
         </is>
       </c>
-      <c r="G5" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-941902</t>
-        </is>
-      </c>
+      <c r="G5" s="28" t="inlineStr"/>
       <c r="H5" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -852,32 +804,20 @@
       </c>
       <c r="C6" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D6" s="28" t="inlineStr">
-        <is>
-          <t>NON AMMISSIONE</t>
-        </is>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D6" s="28" t="inlineStr"/>
+      <c r="E6" s="28" t="inlineStr"/>
       <c r="F6" s="28" t="inlineStr">
         <is>
           <t>1744011702763</t>
         </is>
       </c>
-      <c r="G6" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-941743</t>
-        </is>
-      </c>
+      <c r="G6" s="28" t="inlineStr"/>
       <c r="H6" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -892,32 +832,20 @@
       </c>
       <c r="C7" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D7" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D7" s="28" t="inlineStr"/>
+      <c r="E7" s="28" t="inlineStr"/>
       <c r="F7" s="28" t="inlineStr">
         <is>
           <t>1744109260306</t>
         </is>
       </c>
-      <c r="G7" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-942164</t>
-        </is>
-      </c>
+      <c r="G7" s="28" t="inlineStr"/>
       <c r="H7" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -932,32 +860,20 @@
       </c>
       <c r="C8" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D8" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D8" s="28" t="inlineStr"/>
+      <c r="E8" s="28" t="inlineStr"/>
       <c r="F8" s="28" t="inlineStr">
         <is>
           <t>1744199103851</t>
         </is>
       </c>
-      <c r="G8" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-941732</t>
-        </is>
-      </c>
+      <c r="G8" s="28" t="inlineStr"/>
       <c r="H8" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>
@@ -972,32 +888,20 @@
       </c>
       <c r="C9" s="28" t="inlineStr">
         <is>
-          <t>CHIUSA</t>
-        </is>
-      </c>
-      <c r="D9" s="28" t="inlineStr">
-        <is>
-          <t>RILASCIO NULLA OSTA</t>
-        </is>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
+          <t>Elemento Non Trovato (JS)</t>
+        </is>
+      </c>
+      <c r="D9" s="28" t="inlineStr"/>
+      <c r="E9" s="28" t="inlineStr"/>
       <c r="F9" s="28" t="inlineStr">
         <is>
           <t>1744190924214</t>
         </is>
       </c>
-      <c r="G9" s="28" t="inlineStr">
-        <is>
-          <t>2025-USMAF-MIL-GME-P-MXP-942157</t>
-        </is>
-      </c>
+      <c r="G9" s="28" t="inlineStr"/>
       <c r="H9" s="28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Stato recuperato: Elemento Non Trovato (JS).</t>
         </is>
       </c>
     </row>

--- a/dati.xlsx
+++ b/dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stosello\PycharmProjects\ControlloStatoNSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90101421-1FED-4746-9394-9DE4D6069337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE392C1-B28B-4D8B-94FF-B69629FFA67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>AWB</t>
   </si>
@@ -28,22 +28,22 @@
     <t>ricerca</t>
   </si>
   <si>
-    <t>Stato</t>
-  </si>
-  <si>
-    <t>Provvedimento</t>
-  </si>
-  <si>
-    <t>Data Provvedimento</t>
-  </si>
-  <si>
-    <t>Codice richiesta (risultato)</t>
-  </si>
-  <si>
-    <t>Protocollo uscita</t>
-  </si>
-  <si>
-    <t>Note Usmaf</t>
+    <t>stato</t>
+  </si>
+  <si>
+    <t>protocollo uscita</t>
+  </si>
+  <si>
+    <t>provvedimento</t>
+  </si>
+  <si>
+    <t>data provvedimento</t>
+  </si>
+  <si>
+    <t>codice richiesta (risultato)</t>
+  </si>
+  <si>
+    <t>note usmaf</t>
   </si>
   <si>
     <t>1743573696146</t>
@@ -52,15 +52,15 @@
     <t>CHIUSA</t>
   </si>
   <si>
+    <t>2025-USMAF-MIL-GME-P-MXP-942109</t>
+  </si>
+  <si>
     <t>RILASCIO NULLA OSTA</t>
   </si>
   <si>
     <t>18/04/2025</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942109</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>1744011702763</t>
   </si>
   <si>
+    <t>2025-USMAF-MIL-GME-P-MXP-941743</t>
+  </si>
+  <si>
     <t>NON AMMISSIONE</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-941743</t>
-  </si>
-  <si>
     <t>1744109260306</t>
   </si>
   <si>
@@ -127,41 +127,44 @@
     <t>1744198815465</t>
   </si>
   <si>
+    <t>2025-USMAF-MIL-GME-P-MXP-940160</t>
+  </si>
+  <si>
     <t>15/04/2025</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-940160</t>
-  </si>
-  <si>
     <t>1744203024278</t>
   </si>
   <si>
+    <t>2025-USMAF-MIL-GME-P-MXP-943382</t>
+  </si>
+  <si>
     <t>23/04/2025</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-943382</t>
-  </si>
-  <si>
     <t>1744280580696</t>
   </si>
   <si>
+    <t>2025-USMAF-MIL-GME-P-MXP-942507</t>
+  </si>
+  <si>
     <t>22/04/2025</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942507</t>
-  </si>
-  <si>
     <t>1744350901846</t>
   </si>
   <si>
-    <t>IN LAVORAZIONE</t>
+    <t>2025-USMAF-MIL-GME-P-MXP-944140</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +195,11 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -305,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -386,25 +394,15 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -705,19 +703,19 @@
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -727,22 +725,22 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -753,22 +751,22 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -779,22 +777,22 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -805,22 +803,22 @@
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -831,22 +829,22 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -857,22 +855,22 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -883,22 +881,22 @@
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -909,22 +907,22 @@
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -935,22 +933,22 @@
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -961,22 +959,22 @@
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -987,22 +985,22 @@
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1013,22 +1011,22 @@
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1037,22 +1035,22 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1063,22 +1061,22 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="29" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1089,22 +1087,22 @@
       <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1994,10 +1992,6 @@
       <c r="B243" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dati.xlsx
+++ b/dati.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stosello\nsis\ControlloStatoNSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itose\cursor project\ControlloStatoNSIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B8505-129F-4408-A993-F1001DF08DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEA5AAC-71E2-4854-ACA2-B78651A05CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2160" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>AWB</t>
   </si>
@@ -49,112 +49,43 @@
     <t>1743573696146</t>
   </si>
   <si>
-    <t>CHIUSA</t>
-  </si>
-  <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942109</t>
-  </si>
-  <si>
-    <t>RILASCIO NULLA OSTA</t>
-  </si>
-  <si>
-    <t>18/04/2025</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>1743668858768</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-941686</t>
-  </si>
-  <si>
     <t>1744015060675</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942254</t>
-  </si>
-  <si>
     <t>1744019120533</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-941902</t>
-  </si>
-  <si>
     <t>1744011702763</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-941743</t>
-  </si>
-  <si>
-    <t>NON AMMISSIONE</t>
-  </si>
-  <si>
     <t>1744109260306</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942164</t>
-  </si>
-  <si>
     <t>1744199103851</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-941732</t>
-  </si>
-  <si>
     <t>1744190924214</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942157</t>
-  </si>
-  <si>
     <t>1744191503522</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942160</t>
-  </si>
-  <si>
     <t>1744194879147</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-941985</t>
-  </si>
-  <si>
     <t>1744198815465</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-940160</t>
-  </si>
-  <si>
-    <t>15/04/2025</t>
-  </si>
-  <si>
     <t>1744203024278</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-943382</t>
-  </si>
-  <si>
-    <t>23/04/2025</t>
-  </si>
-  <si>
     <t>1744280580696</t>
   </si>
   <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-942507</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
     <t>1744350901846</t>
-  </si>
-  <si>
-    <t>2025-USMAF-MIL-GME-P-MXP-944140</t>
-  </si>
-  <si>
-    <t>24/04/2025</t>
   </si>
 </sst>
 </file>
@@ -700,7 +631,7 @@
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="C2:H4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,47 +679,25 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>8409370292</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -796,281 +705,151 @@
         <v>2514430365</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4104826961</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1406381605</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4730077881</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="29" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>3649213724</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>5057815265</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>5057815276</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>7402858492</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1562375592</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>8709762762</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,26 +857,14 @@
         <v>5559289455</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
